--- a/sql.xlsx
+++ b/sql.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman_Tiwari\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\Rough\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47C8768-0EA1-4D6A-B05F-9405087EEBE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8E57C-282C-46DB-ABEE-385D363322C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF500C8F-2122-4104-9CFE-F346196DAE11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t xml:space="preserve">tinyint </t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>0 to 65,535 (maximum bytes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q. why char takes 2 bytes in java and 1 byte in c </t>
   </si>
   <si>
     <t>date</t>
@@ -502,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA883BE1-6FAE-4982-BA4E-F19BFC18A08C}">
   <dimension ref="D8:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,13 +521,13 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.3">
@@ -557,9 +554,7 @@
       <c r="K10" s="1">
         <v>99999.99</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.3">
@@ -635,44 +630,44 @@
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="G19" s="4">
         <v>2958465</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="4">
         <v>2958465</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="5">
         <v>25569</v>
@@ -681,7 +676,7 @@
         <v>50424</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
